--- a/src/main/resources/demo.xlsx
+++ b/src/main/resources/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4756\Downloads\project-1\project-1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>Vikram Rao</t>
   </si>
   <si>
-    <t>Ruturaj Patil</t>
-  </si>
-  <si>
     <t>Neha Kulkarni</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Aarti Sharma</t>
+  </si>
+  <si>
+    <t>Nilesh Patil</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3">
         <v>101</v>
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>102</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>103</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>104</v>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>105</v>
@@ -828,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>106</v>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>107</v>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>108</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>109</v>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>111</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>112</v>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>113</v>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>114</v>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>115</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
         <v>116</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>117</v>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>118</v>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
         <v>119</v>
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>120</v>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3">
         <v>122</v>
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>123</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <v>124</v>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3">
         <v>125</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3">
         <v>126</v>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3">
         <v>127</v>
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3">
         <v>128</v>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="3">
         <v>129</v>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="3">
         <v>130</v>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3">
         <v>131</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="3">
         <v>132</v>
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3">
         <v>133</v>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="3">
         <v>134</v>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>135</v>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3">
         <v>136</v>
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <v>137</v>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3">
         <v>138</v>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3">
         <v>139</v>
@@ -1274,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3">
         <v>140</v>
@@ -1298,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3">
         <v>142</v>
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3">
         <v>143</v>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3">
         <v>144</v>
@@ -1338,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3">
         <v>145</v>
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3">
         <v>146</v>
@@ -1364,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="3">
         <v>147</v>
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3">
         <v>148</v>
@@ -1390,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3">
         <v>149</v>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3">
         <v>150</v>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="3">
         <v>151</v>
@@ -1432,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3">
         <v>152</v>
@@ -1444,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3">
         <v>153</v>
@@ -1458,7 +1458,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="3">
         <v>154</v>
@@ -1470,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="3">
         <v>155</v>
@@ -1484,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3">
         <v>156</v>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="3">
         <v>157</v>
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3">
         <v>158</v>
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="3">
         <v>159</v>
@@ -1536,7 +1536,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="3">
         <v>160</v>
@@ -1562,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3">
         <v>162</v>
@@ -1576,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="3">
         <v>163</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="3">
         <v>164</v>
@@ -1602,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="3">
         <v>165</v>
@@ -1616,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="3">
         <v>166</v>
@@ -1628,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="3">
         <v>167</v>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="3">
         <v>168</v>
@@ -1656,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3">
         <v>169</v>
@@ -1668,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="3">
         <v>170</v>
@@ -1682,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="3">
         <v>171</v>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="3">
         <v>172</v>
@@ -1708,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="3">
         <v>173</v>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="3">
         <v>174</v>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="3">
         <v>175</v>
@@ -1746,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="3">
         <v>176</v>
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="3">
         <v>177</v>
@@ -1774,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="3">
         <v>178</v>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="3">
         <v>179</v>
@@ -1800,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="3">
         <v>180</v>
@@ -1824,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="3">
         <v>182</v>
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="3">
         <v>183</v>
@@ -1850,7 +1850,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="3">
         <v>184</v>
@@ -1864,7 +1864,7 @@
         <v>11</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="3">
         <v>185</v>
@@ -1878,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="3">
         <v>186</v>
@@ -1890,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="3">
         <v>187</v>
@@ -1904,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" s="3">
         <v>188</v>
@@ -1916,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="3">
         <v>189</v>
@@ -1930,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="3">
         <v>190</v>
@@ -1944,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="3">
         <v>191</v>
@@ -1956,7 +1956,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="3">
         <v>192</v>
@@ -1970,7 +1970,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="3">
         <v>193</v>
@@ -1982,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="3">
         <v>194</v>
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="3">
         <v>195</v>
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="3">
         <v>196</v>
@@ -2022,7 +2022,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="3">
         <v>197</v>
@@ -2034,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C99" s="3">
         <v>198</v>
@@ -2046,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="3">
         <v>199</v>
@@ -2060,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" s="3">
         <v>200</v>
